--- a/elaborati MPI/elaborato_2/prodotto_matrice_vettore_blocchi/test_accuratezza_el2_prodotto_colonne.xlsx
+++ b/elaborati MPI/elaborato_2/prodotto_matrice_vettore_blocchi/test_accuratezza_el2_prodotto_colonne.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fabio/Desktop/CP/GIT/Calcolo-Parallelo/elaborati MPI/elaborato_2/prodotto_matrice_vettore_colonne/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pa0l0\Documents\GitHub\Calcolo-Parallelo\elaborati MPI\elaborato_2\prodotto_matrice_vettore_blocchi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB0D9DDF-9BA4-4C4B-84CC-6ABC88C3DF93}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD4B786-B7AB-4C64-B90A-94048E86E416}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16720" xr2:uid="{506EAF39-E1AB-4CEC-B2C8-8A63472D1D26}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6880" xr2:uid="{506EAF39-E1AB-4CEC-B2C8-8A63472D1D26}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -33,9 +33,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>R=7, C=8</t>
-  </si>
-  <si>
     <t>Risultato</t>
   </si>
   <si>
@@ -43,6 +40,9 @@
   </si>
   <si>
     <t>Vettore unitario</t>
+  </si>
+  <si>
+    <t>R=7, C=8, q=3</t>
   </si>
 </sst>
 </file>
@@ -483,37 +483,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3838E36-3F33-4BD8-8326-A9F63397C565}">
   <dimension ref="B2:M64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="253" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
-    <col min="6" max="6" width="17.83203125" customWidth="1"/>
-    <col min="7" max="7" width="17.1640625" customWidth="1"/>
-    <col min="8" max="9" width="16.33203125" customWidth="1"/>
-    <col min="10" max="10" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" customWidth="1"/>
+    <col min="4" max="4" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6328125" customWidth="1"/>
+    <col min="6" max="6" width="17.81640625" customWidth="1"/>
+    <col min="7" max="7" width="17.1796875" customWidth="1"/>
+    <col min="8" max="9" width="17.90625" customWidth="1"/>
+    <col min="10" max="10" width="18.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>1</v>
@@ -524,9 +524,9 @@
       <c r="H3" s="3"/>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B4" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="9">
         <v>25.132741228718299</v>
@@ -550,7 +550,7 @@
         <v>175.92918860102799</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B6" s="6"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -558,7 +558,7 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B7" s="6"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -566,7 +566,7 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -574,7 +574,7 @@
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -582,7 +582,7 @@
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B10" s="6"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -590,7 +590,7 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -598,7 +598,7 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -606,7 +606,7 @@
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B13" s="6"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -614,7 +614,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B14" s="6"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -622,7 +622,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B15" s="6"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -630,7 +630,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B16" s="6"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -638,7 +638,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -646,7 +646,7 @@
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -654,7 +654,7 @@
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -662,7 +662,7 @@
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B20" s="6"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -670,7 +670,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B21" s="6"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -678,7 +678,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B22" s="6"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -686,7 +686,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B23" s="6"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -694,7 +694,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -702,7 +702,7 @@
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -710,7 +710,7 @@
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -718,7 +718,7 @@
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -726,7 +726,7 @@
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -734,7 +734,7 @@
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
@@ -742,7 +742,7 @@
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -750,7 +750,7 @@
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
@@ -758,7 +758,7 @@
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B32" s="6"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -766,7 +766,7 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B33" s="6"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -774,7 +774,7 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B34" s="6"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -782,7 +782,7 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B35" s="6"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -793,7 +793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -801,7 +801,7 @@
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
@@ -809,7 +809,7 @@
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B38" s="6"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -817,7 +817,7 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B39" s="6"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -825,7 +825,7 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B40" s="6"/>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -833,7 +833,7 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B41" s="6"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -841,7 +841,7 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
@@ -849,7 +849,7 @@
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
@@ -857,7 +857,7 @@
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B44" s="6"/>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -865,7 +865,7 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B45" s="6"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -873,7 +873,7 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B46" s="6"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -881,7 +881,7 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B47" s="6"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -889,7 +889,7 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
@@ -897,7 +897,7 @@
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
@@ -905,7 +905,7 @@
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
@@ -913,7 +913,7 @@
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
@@ -921,7 +921,7 @@
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -929,7 +929,7 @@
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
@@ -937,7 +937,7 @@
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B54" s="6"/>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -945,7 +945,7 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
@@ -953,7 +953,7 @@
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
@@ -961,7 +961,7 @@
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
@@ -969,7 +969,7 @@
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B58" s="6"/>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -983,7 +983,7 @@
       <c r="L58" s="6"/>
       <c r="M58" s="6"/>
     </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B59" s="6"/>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -997,7 +997,7 @@
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
     </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B60" s="6"/>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -1011,7 +1011,7 @@
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
     </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
@@ -1025,7 +1025,7 @@
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
     </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
@@ -1039,7 +1039,7 @@
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
     </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
@@ -1047,7 +1047,7 @@
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
     </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
